--- a/data_transformation/excel_files/file_output.xlsx
+++ b/data_transformation/excel_files/file_output.xlsx
@@ -14,27 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Tag</t>
   </si>
   <si>
-    <t>Precision Before</t>
-  </si>
-  <si>
-    <t>Precision After</t>
-  </si>
-  <si>
-    <t>Recall Before</t>
-  </si>
-  <si>
-    <t>Recall After</t>
-  </si>
-  <si>
-    <t>F1 Before</t>
-  </si>
-  <si>
-    <t>F1 After</t>
+    <t>Before</t>
+  </si>
+  <si>
+    <t>After</t>
+  </si>
+  <si>
+    <t>RegX</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
   <si>
     <t>boulders</t>
@@ -113,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,22 +123,39 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -146,29 +163,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,516 +472,659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="3">
         <v>0.056</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="3">
         <v>0.077</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3">
         <v>0.25</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="3">
         <v>0.25</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
         <v>0.091</v>
       </c>
-      <c r="G3">
+      <c r="I4" s="3">
         <v>0.118</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="3">
         <v>0.07099999999999999</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="3">
         <v>0.111</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
         <v>0.133</v>
       </c>
-      <c r="G5">
+      <c r="I6" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B8" s="3">
         <v>0.047</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="3">
         <v>0.095</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
         <v>0.089</v>
       </c>
-      <c r="G7">
+      <c r="I8" s="3">
         <v>0.174</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B9" s="3">
         <v>0.417</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="3">
         <v>0.536</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
         <v>0.588</v>
       </c>
-      <c r="G8">
+      <c r="I9" s="3">
         <v>0.698</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B10" s="3">
         <v>0.444</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="3">
         <v>0.5</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
         <v>0.4</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="3">
         <v>0.5</v>
       </c>
-      <c r="F9">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
         <v>0.421</v>
       </c>
-      <c r="G9">
+      <c r="I10" s="3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B11" s="3">
         <v>0.129</v>
       </c>
-      <c r="C10">
+      <c r="C11" s="3">
         <v>0.8</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
         <v>0.229</v>
       </c>
-      <c r="G10">
+      <c r="I11" s="3">
         <v>0.889</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B14" s="3">
         <v>0.143</v>
       </c>
-      <c r="C13">
+      <c r="C14" s="3">
         <v>0.2</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
         <v>0.25</v>
       </c>
-      <c r="G13">
+      <c r="I14" s="3">
         <v>0.333</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
+      <c r="B15" s="3">
         <v>0.703</v>
       </c>
-      <c r="C14">
+      <c r="C15" s="3">
         <v>0.6899999999999999</v>
       </c>
-      <c r="D14">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
         <v>0.929</v>
       </c>
-      <c r="E14">
+      <c r="F15" s="3">
         <v>0.714</v>
       </c>
-      <c r="F14">
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
         <v>0.8</v>
       </c>
-      <c r="G14">
+      <c r="I15" s="3">
         <v>0.702</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
+      <c r="B16" s="3">
         <v>0.522</v>
       </c>
-      <c r="C15">
+      <c r="C16" s="3">
         <v>0.75</v>
       </c>
-      <c r="D15">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3">
         <v>0.923</v>
       </c>
-      <c r="E15">
+      <c r="F16" s="3">
         <v>0.6919999999999999</v>
       </c>
-      <c r="F15">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
         <v>0.667</v>
       </c>
-      <c r="G15">
+      <c r="I16" s="3">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
+      <c r="B17" s="3">
         <v>0.629</v>
       </c>
-      <c r="C16">
+      <c r="C17" s="3">
         <v>0.7</v>
       </c>
-      <c r="D16">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3">
         <v>0.9360000000000001</v>
       </c>
-      <c r="E16">
+      <c r="F17" s="3">
         <v>0.894</v>
       </c>
-      <c r="F16">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
         <v>0.752</v>
       </c>
-      <c r="G16">
+      <c r="I17" s="3">
         <v>0.785</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
+      <c r="B18" s="3">
         <v>0.333</v>
       </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3">
         <v>0.667</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
         <v>0.444</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="3">
         <v>0.103</v>
       </c>
-      <c r="C18">
+      <c r="C19" s="3">
         <v>0.25</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
         <v>0.188</v>
       </c>
-      <c r="G18">
+      <c r="I19" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
+      <c r="B20" s="3">
         <v>0.156</v>
       </c>
-      <c r="C19">
+      <c r="C20" s="3">
         <v>0.278</v>
       </c>
-      <c r="D19">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
         <v>0.714</v>
       </c>
-      <c r="E19">
+      <c r="F20" s="3">
         <v>0.714</v>
       </c>
-      <c r="F19">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
         <v>0.256</v>
       </c>
-      <c r="G19">
+      <c r="I20" s="3">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F21">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
         <v>0.666</v>
       </c>
-      <c r="G21">
+      <c r="I22" s="3">
         <v>0.719</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F22">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
         <v>0.328</v>
       </c>
-      <c r="G22">
+      <c r="I23" s="3">
         <v>0.384</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23">
+      <c r="B24" s="3">
         <v>0.637</v>
       </c>
-      <c r="C23">
+      <c r="C24" s="3">
         <v>0.701</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24">
+      <c r="B25" s="3">
         <v>0.264</v>
       </c>
-      <c r="C24">
+      <c r="C25" s="3">
         <v>0.388</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3">
         <v>0.75</v>
       </c>
-      <c r="E25">
+      <c r="F26" s="3">
         <v>0.764</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D26">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
         <v>0.879</v>
       </c>
-      <c r="E26">
+      <c r="F27" s="3">
         <v>0.82</v>
       </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_transformation/excel_files/file_output.xlsx
+++ b/data_transformation/excel_files/file_output.xlsx
@@ -14,7 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+  <si>
+    <t>Precision Before</t>
+  </si>
+  <si>
+    <t>Precision After</t>
+  </si>
+  <si>
+    <t>Precision RegX</t>
+  </si>
+  <si>
+    <t>Recall Before</t>
+  </si>
+  <si>
+    <t>Recall After</t>
+  </si>
+  <si>
+    <t>Recall RegX</t>
+  </si>
+  <si>
+    <t>F1 Before</t>
+  </si>
+  <si>
+    <t>F1 After</t>
+  </si>
+  <si>
+    <t>F1 RegX</t>
+  </si>
   <si>
     <t>Tag</t>
   </si>
@@ -123,15 +150,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="12.5"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Aptos"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -182,7 +209,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -472,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,56 +526,57 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10">
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -559,7 +602,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B4" s="3">
         <v>0.056</v>
@@ -585,7 +628,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -611,7 +654,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3">
         <v>0.07099999999999999</v>
@@ -637,7 +680,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -663,7 +706,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3">
         <v>0.047</v>
@@ -689,7 +732,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3">
         <v>0.417</v>
@@ -715,7 +758,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B10" s="3">
         <v>0.444</v>
@@ -741,7 +784,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B11" s="3">
         <v>0.129</v>
@@ -767,7 +810,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -793,7 +836,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -819,7 +862,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B14" s="3">
         <v>0.143</v>
@@ -845,7 +888,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B15" s="3">
         <v>0.703</v>
@@ -871,7 +914,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B16" s="3">
         <v>0.522</v>
@@ -897,7 +940,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3">
         <v>0.629</v>
@@ -923,7 +966,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3">
         <v>0.333</v>
@@ -949,7 +992,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3">
         <v>0.103</v>
@@ -975,7 +1018,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3">
         <v>0.156</v>
@@ -1000,20 +1043,26 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3">
+        <v>0.666</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.719</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1022,40 +1071,40 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>0.666</v>
+        <v>0.328</v>
       </c>
       <c r="I22" s="3">
-        <v>0.719</v>
+        <v>0.384</v>
       </c>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.637</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.701</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3">
-        <v>0.328</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0.384</v>
-      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3">
-        <v>0.637</v>
+        <v>0.264</v>
       </c>
       <c r="C24" s="3">
-        <v>0.701</v>
+        <v>0.388</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1067,17 +1116,17 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0.264</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.388</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.764</v>
+      </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -1085,39 +1134,21 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3">
-        <v>0.75</v>
+        <v>0.879</v>
       </c>
       <c r="F26" s="3">
-        <v>0.764</v>
+        <v>0.82</v>
       </c>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3">
-        <v>0.879</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.82</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1125,6 +1156,726 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
+      <formula>$C10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
+      <formula>$C11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12">
+    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
+      <formula>$C12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="0" priority="21" operator="greaterThan">
+      <formula>$C13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14">
+    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
+      <formula>$C14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="cellIs" dxfId="0" priority="25" operator="greaterThan">
+      <formula>$C15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThan">
+      <formula>$C16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="greaterThan">
+      <formula>$C17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="cellIs" dxfId="0" priority="31" operator="greaterThan">
+      <formula>$C18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="0" priority="33" operator="greaterThan">
+      <formula>$C19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThan">
+      <formula>$C20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="0" priority="37" operator="greaterThan">
+      <formula>$C21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="greaterThan">
+      <formula>$C22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="0" priority="41" operator="greaterThan">
+      <formula>$C23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="0" priority="43" operator="greaterThan">
+      <formula>$C24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="0" priority="45" operator="greaterThan">
+      <formula>$C25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="0" priority="47" operator="greaterThan">
+      <formula>$C26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B3">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>$C4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
+      <formula>$C5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
+      <formula>$C6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
+      <formula>$C7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8">
+    <cfRule type="cellIs" dxfId="0" priority="11" operator="greaterThan">
+      <formula>$C8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
+      <formula>$C9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
+      <formula>$B10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C11">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
+      <formula>$B11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
+      <formula>$B12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
+      <formula>$B13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
+      <formula>$B14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
+      <formula>$B15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
+      <formula>$B16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
+      <formula>$B17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
+      <formula>$B18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="greaterThan">
+      <formula>$B19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThan">
+      <formula>$B20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThan">
+      <formula>$B21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="greaterThan">
+      <formula>$B22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="greaterThan">
+      <formula>$B23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="greaterThan">
+      <formula>$B24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="greaterThan">
+      <formula>$B25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="greaterThan">
+      <formula>$B26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>$B3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
+      <formula>$B4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
+      <formula>$B5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
+      <formula>$B6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
+      <formula>$B7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
+      <formula>$B8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+      <formula>$B9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" dxfId="0" priority="63" operator="greaterThan">
+      <formula>$F10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="0" priority="65" operator="greaterThan">
+      <formula>$F11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12">
+    <cfRule type="cellIs" dxfId="0" priority="67" operator="greaterThan">
+      <formula>$F12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="0" priority="69" operator="greaterThan">
+      <formula>$F13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="cellIs" dxfId="0" priority="71" operator="greaterThan">
+      <formula>$F14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="0" priority="73" operator="greaterThan">
+      <formula>$F15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" dxfId="0" priority="75" operator="greaterThan">
+      <formula>$F16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="0" priority="77" operator="greaterThan">
+      <formula>$F17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" dxfId="0" priority="79" operator="greaterThan">
+      <formula>$F18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" dxfId="0" priority="81" operator="greaterThan">
+      <formula>$F19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" dxfId="0" priority="83" operator="greaterThan">
+      <formula>$F20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E21">
+    <cfRule type="cellIs" dxfId="0" priority="85" operator="greaterThan">
+      <formula>$F21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22">
+    <cfRule type="cellIs" dxfId="0" priority="87" operator="greaterThan">
+      <formula>$F22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="0" priority="89" operator="greaterThan">
+      <formula>$F23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="0" priority="91" operator="greaterThan">
+      <formula>$F24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="0" priority="93" operator="greaterThan">
+      <formula>$F25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="0" priority="95" operator="greaterThan">
+      <formula>$F26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="cellIs" dxfId="0" priority="49" operator="greaterThan">
+      <formula>$F3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="cellIs" dxfId="0" priority="51" operator="greaterThan">
+      <formula>$F4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5">
+    <cfRule type="cellIs" dxfId="0" priority="53" operator="greaterThan">
+      <formula>$F5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="cellIs" dxfId="0" priority="55" operator="greaterThan">
+      <formula>$F6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="0" priority="57" operator="greaterThan">
+      <formula>$F7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="cellIs" dxfId="0" priority="59" operator="greaterThan">
+      <formula>$F8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="0" priority="61" operator="greaterThan">
+      <formula>$F9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="greaterThan">
+      <formula>$E10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
+      <formula>$E11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
+      <formula>$E12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="greaterThan">
+      <formula>$E13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="greaterThan">
+      <formula>$E14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="greaterThan">
+      <formula>$E15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="greaterThan">
+      <formula>$E16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="greaterThan">
+      <formula>$E17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="greaterThan">
+      <formula>$E18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="greaterThan">
+      <formula>$E19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="greaterThan">
+      <formula>$E20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="greaterThan">
+      <formula>$E21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="greaterThan">
+      <formula>$E22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="greaterThan">
+      <formula>$E23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="greaterThan">
+      <formula>$E24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="greaterThan">
+      <formula>$E25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="greaterThan">
+      <formula>$E26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="greaterThan">
+      <formula>$E3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="greaterThan">
+      <formula>$E4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="greaterThan">
+      <formula>$E5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="greaterThan">
+      <formula>$E6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="greaterThan">
+      <formula>$E7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="greaterThan">
+      <formula>$E8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="greaterThan">
+      <formula>$E9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="0" priority="111" operator="greaterThan">
+      <formula>$I10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="0" priority="113" operator="greaterThan">
+      <formula>$I11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="0" priority="115" operator="greaterThan">
+      <formula>$I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="0" priority="117" operator="greaterThan">
+      <formula>$I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="0" priority="119" operator="greaterThan">
+      <formula>$I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="0" priority="121" operator="greaterThan">
+      <formula>$I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="0" priority="123" operator="greaterThan">
+      <formula>$I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="0" priority="125" operator="greaterThan">
+      <formula>$I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="0" priority="127" operator="greaterThan">
+      <formula>$I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="0" priority="129" operator="greaterThan">
+      <formula>$I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="0" priority="131" operator="greaterThan">
+      <formula>$I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="0" priority="133" operator="greaterThan">
+      <formula>$I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="0" priority="135" operator="greaterThan">
+      <formula>$I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="0" priority="137" operator="greaterThan">
+      <formula>$I23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="0" priority="139" operator="greaterThan">
+      <formula>$I24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="0" priority="141" operator="greaterThan">
+      <formula>$I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="0" priority="143" operator="greaterThan">
+      <formula>$I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="0" priority="97" operator="greaterThan">
+      <formula>$I3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="0" priority="99" operator="greaterThan">
+      <formula>$I4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="0" priority="101" operator="greaterThan">
+      <formula>$I5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="0" priority="103" operator="greaterThan">
+      <formula>$I6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="0" priority="105" operator="greaterThan">
+      <formula>$I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="0" priority="107" operator="greaterThan">
+      <formula>$I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="0" priority="109" operator="greaterThan">
+      <formula>$I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="cellIs" dxfId="1" priority="112" operator="greaterThan">
+      <formula>$H10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="1" priority="114" operator="greaterThan">
+      <formula>$H11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="cellIs" dxfId="1" priority="116" operator="greaterThan">
+      <formula>$H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="1" priority="118" operator="greaterThan">
+      <formula>$H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
+      <formula>$H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="1" priority="122" operator="greaterThan">
+      <formula>$H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="cellIs" dxfId="1" priority="124" operator="greaterThan">
+      <formula>$H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="1" priority="126" operator="greaterThan">
+      <formula>$H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="cellIs" dxfId="1" priority="128" operator="greaterThan">
+      <formula>$H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="cellIs" dxfId="1" priority="130" operator="greaterThan">
+      <formula>$H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="cellIs" dxfId="1" priority="132" operator="greaterThan">
+      <formula>$H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="cellIs" dxfId="1" priority="134" operator="greaterThan">
+      <formula>$H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="cellIs" dxfId="1" priority="136" operator="greaterThan">
+      <formula>$H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="cellIs" dxfId="1" priority="138" operator="greaterThan">
+      <formula>$H23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="cellIs" dxfId="1" priority="140" operator="greaterThan">
+      <formula>$H24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="cellIs" dxfId="1" priority="142" operator="greaterThan">
+      <formula>$H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" dxfId="1" priority="144" operator="greaterThan">
+      <formula>$H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
+      <formula>$H3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="greaterThan">
+      <formula>$H4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="1" priority="102" operator="greaterThan">
+      <formula>$H5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="cellIs" dxfId="1" priority="104" operator="greaterThan">
+      <formula>$H6</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="1" priority="106" operator="greaterThan">
+      <formula>$H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="cellIs" dxfId="1" priority="108" operator="greaterThan">
+      <formula>$H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
+      <formula>$H9</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data_transformation/excel_files/file_output.xlsx
+++ b/data_transformation/excel_files/file_output.xlsx
@@ -1,47 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natch\InformatiQ\CODE\py_learn\data_transformation\excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFC822A-2D1B-4444-9E90-D02F14C20CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-7800" yWindow="-17280" windowWidth="15516" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
-  <si>
-    <t>Precision Before</t>
-  </si>
-  <si>
-    <t>Precision After</t>
-  </si>
-  <si>
-    <t>Precision RegX</t>
-  </si>
-  <si>
-    <t>Recall Before</t>
-  </si>
-  <si>
-    <t>Recall After</t>
-  </si>
-  <si>
-    <t>Recall RegX</t>
-  </si>
-  <si>
-    <t>F1 Before</t>
-  </si>
-  <si>
-    <t>F1 After</t>
-  </si>
-  <si>
-    <t>F1 RegX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>Tag</t>
   </si>
@@ -139,8 +118,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -205,11 +184,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -224,15 +213,44 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +288,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -304,6 +322,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -338,9 +357,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -513,70 +533,72 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="10" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="10" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
@@ -600,15 +622,15 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
-        <v>0.056</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C4" s="3">
-        <v>0.077</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
@@ -619,16 +641,16 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
-        <v>0.091</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J4" s="3"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -652,12 +674,12 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
-        <v>0.07099999999999999</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="C6" s="3">
         <v>0.111</v>
@@ -671,16 +693,16 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <v>0.133</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I6" s="3">
         <v>0.2</v>
       </c>
       <c r="J6" s="3"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>0</v>
@@ -704,15 +726,15 @@
       </c>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>0.047</v>
+        <v>4.7E-2</v>
       </c>
       <c r="C8" s="3">
-        <v>0.095</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3">
@@ -723,22 +745,22 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <v>0.089</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="I8" s="3">
-        <v>0.174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
-        <v>0.417</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="C9" s="3">
-        <v>0.536</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3">
@@ -749,19 +771,19 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <v>0.588</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="I9" s="3">
-        <v>0.698</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="C10" s="3">
         <v>0.5</v>
@@ -775,16 +797,16 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <v>0.421</v>
+        <v>0.42099999999999999</v>
       </c>
       <c r="I10" s="3">
         <v>0.5</v>
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <v>0.129</v>
@@ -801,16 +823,16 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3">
-        <v>0.229</v>
+        <v>0.22900000000000001</v>
       </c>
       <c r="I11" s="3">
-        <v>0.889</v>
+        <v>0.88900000000000001</v>
       </c>
       <c r="J11" s="3"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
         <v>0</v>
@@ -834,9 +856,9 @@
       </c>
       <c r="J12" s="3"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -860,12 +882,12 @@
       </c>
       <c r="J13" s="3"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="C14" s="3">
         <v>0.2</v>
@@ -882,65 +904,65 @@
         <v>0.25</v>
       </c>
       <c r="I14" s="3">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>0.703</v>
+        <v>0.70299999999999996</v>
       </c>
       <c r="C15" s="3">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>0.929</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="F15" s="3">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3">
         <v>0.8</v>
       </c>
       <c r="I15" s="3">
-        <v>0.702</v>
+        <v>0.70199999999999996</v>
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>0.522</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C16" s="3">
         <v>0.75</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3">
-        <v>0.923</v>
+        <v>0.92300000000000004</v>
       </c>
       <c r="F16" s="3">
-        <v>0.6919999999999999</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="I16" s="3">
         <v>0.72</v>
       </c>
       <c r="J16" s="3"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
         <v>0.629</v>
@@ -950,52 +972,52 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3">
-        <v>0.9360000000000001</v>
+        <v>0.93600000000000005</v>
       </c>
       <c r="F17" s="3">
-        <v>0.894</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
         <v>0.752</v>
       </c>
       <c r="I17" s="3">
-        <v>0.785</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="J17" s="3"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>0.333</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3">
-        <v>0.667</v>
+        <v>0.66700000000000004</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <v>0.444</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
       <c r="J18" s="3"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>0.103</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C19" s="3">
         <v>0.25</v>
@@ -1016,35 +1038,35 @@
       </c>
       <c r="J19" s="3"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
         <v>0.156</v>
       </c>
       <c r="C20" s="3">
-        <v>0.278</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="F20" s="3">
-        <v>0.714</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <v>0.256</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="I20" s="3">
         <v>0.4</v>
       </c>
       <c r="J20" s="3"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1053,16 +1075,16 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
-        <v>0.666</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="I21" s="3">
-        <v>0.719</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="J21" s="3"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1071,22 +1093,22 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
-        <v>0.328</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="I22" s="3">
-        <v>0.384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="J22" s="3"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
-        <v>0.637</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="C23" s="3">
-        <v>0.701</v>
+        <v>0.70099999999999996</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1096,15 +1118,15 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>0.264</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="C24" s="3">
-        <v>0.388</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1114,9 +1136,9 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1125,16 +1147,16 @@
         <v>0.75</v>
       </c>
       <c r="F25" s="3">
-        <v>0.764</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1156,724 +1178,34 @@
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="B10">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="greaterThan">
-      <formula>$C10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="greaterThan">
-      <formula>$C11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="0" priority="19" operator="greaterThan">
-      <formula>$C12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="greaterThan">
-      <formula>$C13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14">
-    <cfRule type="cellIs" dxfId="0" priority="23" operator="greaterThan">
-      <formula>$C14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="0" priority="25" operator="greaterThan">
-      <formula>$C15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="greaterThan">
-      <formula>$C16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="greaterThan">
-      <formula>$C17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="greaterThan">
-      <formula>$C18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="greaterThan">
-      <formula>$C19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="cellIs" dxfId="0" priority="35" operator="greaterThan">
-      <formula>$C20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
-    <cfRule type="cellIs" dxfId="0" priority="37" operator="greaterThan">
-      <formula>$C21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="greaterThan">
-      <formula>$C22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="0" priority="41" operator="greaterThan">
-      <formula>$C23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="0" priority="43" operator="greaterThan">
-      <formula>$C24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25">
-    <cfRule type="cellIs" dxfId="0" priority="45" operator="greaterThan">
-      <formula>$C25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B26">
-    <cfRule type="cellIs" dxfId="0" priority="47" operator="greaterThan">
-      <formula>$C26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+  <conditionalFormatting sqref="B3:B26">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>$C3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
-      <formula>$C4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="greaterThan">
-      <formula>$C5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="greaterThan">
-      <formula>$C6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
-      <formula>$C7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8">
-    <cfRule type="cellIs" dxfId="0" priority="11" operator="greaterThan">
-      <formula>$C8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
-      <formula>$C9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="greaterThan">
-      <formula>$B10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="greaterThan">
-      <formula>$B11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
-      <formula>$B12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="greaterThan">
-      <formula>$B13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="greaterThan">
-      <formula>$B14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
-      <formula>$B15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="greaterThan">
-      <formula>$B16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="greaterThan">
-      <formula>$B17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
-      <formula>$B18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C19">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="greaterThan">
-      <formula>$B19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="greaterThan">
-      <formula>$B20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThan">
-      <formula>$B21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="greaterThan">
-      <formula>$B22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="greaterThan">
-      <formula>$B23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="greaterThan">
-      <formula>$B24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="greaterThan">
-      <formula>$B25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="greaterThan">
-      <formula>$B26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+  <conditionalFormatting sqref="C3:C26">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>$B3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="greaterThan">
-      <formula>$B4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="greaterThan">
-      <formula>$B5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
-      <formula>$B6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="greaterThan">
-      <formula>$B7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="greaterThan">
-      <formula>$B8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>$B9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" dxfId="0" priority="63" operator="greaterThan">
-      <formula>$F10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="0" priority="65" operator="greaterThan">
-      <formula>$F11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="cellIs" dxfId="0" priority="67" operator="greaterThan">
-      <formula>$F12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="0" priority="69" operator="greaterThan">
-      <formula>$F13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="0" priority="71" operator="greaterThan">
-      <formula>$F14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="0" priority="73" operator="greaterThan">
-      <formula>$F15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" dxfId="0" priority="75" operator="greaterThan">
-      <formula>$F16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="0" priority="77" operator="greaterThan">
-      <formula>$F17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="0" priority="79" operator="greaterThan">
-      <formula>$F18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="0" priority="81" operator="greaterThan">
-      <formula>$F19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" dxfId="0" priority="83" operator="greaterThan">
-      <formula>$F20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21">
-    <cfRule type="cellIs" dxfId="0" priority="85" operator="greaterThan">
-      <formula>$F21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E22">
-    <cfRule type="cellIs" dxfId="0" priority="87" operator="greaterThan">
-      <formula>$F22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="0" priority="89" operator="greaterThan">
-      <formula>$F23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="0" priority="91" operator="greaterThan">
-      <formula>$F24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="0" priority="93" operator="greaterThan">
-      <formula>$F25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="0" priority="95" operator="greaterThan">
-      <formula>$F26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="0" priority="49" operator="greaterThan">
+  <conditionalFormatting sqref="E3:E26">
+    <cfRule type="cellIs" dxfId="3" priority="49" operator="greaterThan">
       <formula>$F3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="cellIs" dxfId="0" priority="51" operator="greaterThan">
-      <formula>$F4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="0" priority="53" operator="greaterThan">
-      <formula>$F5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="cellIs" dxfId="0" priority="55" operator="greaterThan">
-      <formula>$F6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="0" priority="57" operator="greaterThan">
-      <formula>$F7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" dxfId="0" priority="59" operator="greaterThan">
-      <formula>$F8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="0" priority="61" operator="greaterThan">
-      <formula>$F9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="greaterThan">
-      <formula>$E10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="greaterThan">
-      <formula>$E11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
-      <formula>$E12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="greaterThan">
-      <formula>$E13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="greaterThan">
-      <formula>$E14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="1" priority="74" operator="greaterThan">
-      <formula>$E15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="1" priority="76" operator="greaterThan">
-      <formula>$E16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="1" priority="78" operator="greaterThan">
-      <formula>$E17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" dxfId="1" priority="80" operator="greaterThan">
-      <formula>$E18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="1" priority="82" operator="greaterThan">
-      <formula>$E19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="1" priority="84" operator="greaterThan">
-      <formula>$E20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="1" priority="86" operator="greaterThan">
-      <formula>$E21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="1" priority="88" operator="greaterThan">
-      <formula>$E22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="1" priority="90" operator="greaterThan">
-      <formula>$E23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="1" priority="92" operator="greaterThan">
-      <formula>$E24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
-    <cfRule type="cellIs" dxfId="1" priority="94" operator="greaterThan">
-      <formula>$E25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" dxfId="1" priority="96" operator="greaterThan">
-      <formula>$E26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="greaterThan">
+  <conditionalFormatting sqref="F3:F26">
+    <cfRule type="cellIs" dxfId="2" priority="50" operator="greaterThan">
       <formula>$E3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="greaterThan">
-      <formula>$E4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="greaterThan">
-      <formula>$E5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="greaterThan">
-      <formula>$E6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="greaterThan">
-      <formula>$E7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="greaterThan">
-      <formula>$E8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="greaterThan">
-      <formula>$E9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="0" priority="111" operator="greaterThan">
-      <formula>$I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="0" priority="113" operator="greaterThan">
-      <formula>$I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="0" priority="115" operator="greaterThan">
-      <formula>$I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="0" priority="117" operator="greaterThan">
-      <formula>$I13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="0" priority="119" operator="greaterThan">
-      <formula>$I14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="0" priority="121" operator="greaterThan">
-      <formula>$I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="0" priority="123" operator="greaterThan">
-      <formula>$I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="0" priority="125" operator="greaterThan">
-      <formula>$I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="0" priority="127" operator="greaterThan">
-      <formula>$I18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="0" priority="129" operator="greaterThan">
-      <formula>$I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="0" priority="131" operator="greaterThan">
-      <formula>$I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="0" priority="133" operator="greaterThan">
-      <formula>$I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="0" priority="135" operator="greaterThan">
-      <formula>$I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="0" priority="137" operator="greaterThan">
-      <formula>$I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="0" priority="139" operator="greaterThan">
-      <formula>$I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="0" priority="141" operator="greaterThan">
-      <formula>$I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="0" priority="143" operator="greaterThan">
-      <formula>$I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="0" priority="97" operator="greaterThan">
+  <conditionalFormatting sqref="H3:H26">
+    <cfRule type="cellIs" dxfId="1" priority="97" operator="greaterThan">
       <formula>$I3</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="0" priority="99" operator="greaterThan">
-      <formula>$I4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="0" priority="101" operator="greaterThan">
-      <formula>$I5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="0" priority="103" operator="greaterThan">
-      <formula>$I6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="0" priority="105" operator="greaterThan">
-      <formula>$I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="0" priority="107" operator="greaterThan">
-      <formula>$I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="0" priority="109" operator="greaterThan">
-      <formula>$I9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="cellIs" dxfId="1" priority="112" operator="greaterThan">
-      <formula>$H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="1" priority="114" operator="greaterThan">
-      <formula>$H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="cellIs" dxfId="1" priority="116" operator="greaterThan">
-      <formula>$H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="1" priority="118" operator="greaterThan">
-      <formula>$H13</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="cellIs" dxfId="1" priority="120" operator="greaterThan">
-      <formula>$H14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="1" priority="122" operator="greaterThan">
-      <formula>$H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="1" priority="124" operator="greaterThan">
-      <formula>$H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="cellIs" dxfId="1" priority="126" operator="greaterThan">
-      <formula>$H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="cellIs" dxfId="1" priority="128" operator="greaterThan">
-      <formula>$H18</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
-    <cfRule type="cellIs" dxfId="1" priority="130" operator="greaterThan">
-      <formula>$H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="cellIs" dxfId="1" priority="132" operator="greaterThan">
-      <formula>$H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I21">
-    <cfRule type="cellIs" dxfId="1" priority="134" operator="greaterThan">
-      <formula>$H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I22">
-    <cfRule type="cellIs" dxfId="1" priority="136" operator="greaterThan">
-      <formula>$H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" dxfId="1" priority="138" operator="greaterThan">
-      <formula>$H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="cellIs" dxfId="1" priority="140" operator="greaterThan">
-      <formula>$H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
-    <cfRule type="cellIs" dxfId="1" priority="142" operator="greaterThan">
-      <formula>$H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="1" priority="144" operator="greaterThan">
-      <formula>$H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
+  <conditionalFormatting sqref="I3:I26">
+    <cfRule type="cellIs" dxfId="0" priority="98" operator="greaterThan">
       <formula>$H3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="cellIs" dxfId="1" priority="100" operator="greaterThan">
-      <formula>$H4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1" priority="102" operator="greaterThan">
-      <formula>$H5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="1" priority="104" operator="greaterThan">
-      <formula>$H6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="106" operator="greaterThan">
-      <formula>$H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="cellIs" dxfId="1" priority="108" operator="greaterThan">
-      <formula>$H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
-      <formula>$H9</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
